--- a/Data/aearep-1040/candidatepackages.xlsx
+++ b/Data/aearep-1040/candidatepackages.xlsx
@@ -14,29 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>lambda</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -46,24 +34,12 @@
     <t>white</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -82,21 +58,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1040</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1040/119821/do</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1040/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>01_completedta.do</t>
   </si>
   <si>
@@ -149,12 +116,6 @@
   </si>
   <si>
     <t>FigureA5a_d.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -198,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -206,13 +167,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -220,10 +181,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>390</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D2"/>
     </row>
@@ -232,10 +193,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D3"/>
     </row>
@@ -244,10 +205,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D4"/>
     </row>
@@ -256,10 +217,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D5"/>
     </row>
@@ -268,10 +229,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="C6">
-        <v>0.12765252590179443</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D6"/>
     </row>
@@ -280,10 +241,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>417</v>
+        <v>955</v>
       </c>
       <c r="C7">
-        <v>0.13826259970664978</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D7"/>
     </row>
@@ -292,10 +253,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>565</v>
+        <v>1497</v>
       </c>
       <c r="C8">
-        <v>0.18733422458171844</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D8"/>
     </row>
@@ -304,10 +265,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>566</v>
+        <v>2436</v>
       </c>
       <c r="C9">
-        <v>0.18766577541828156</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D9"/>
     </row>
@@ -316,108 +277,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>745</v>
+        <v>2642</v>
       </c>
       <c r="C10">
-        <v>0.24701590836048126</v>
+        <v>0.87338840961456299</v>
       </c>
       <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1124</v>
-      </c>
-      <c r="C11">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1133</v>
-      </c>
-      <c r="C12">
-        <v>0.37566313147544861</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1660</v>
-      </c>
-      <c r="C13">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1798</v>
-      </c>
-      <c r="C14">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1817</v>
-      </c>
-      <c r="C15">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1859</v>
-      </c>
-      <c r="C16">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2424</v>
-      </c>
-      <c r="C17">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2641</v>
-      </c>
-      <c r="C18">
-        <v>0.87566310167312622</v>
-      </c>
-      <c r="D18"/>
     </row>
   </sheetData>
 </worksheet>
@@ -425,183 +290,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
